--- a/StructureDefinition-ext-R5-ElementDefinition.constraint.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.constraint.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="201">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -496,15 +496,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>SHALL applications comply with this constraint?</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-constraint-severity-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:suppress</t>
   </si>
   <si>
@@ -645,7 +636,7 @@
     <t>Extension.extension:source.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|0.0.1-snapshot-3|StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|StructureDefinition)
 </t>
   </si>
   <si>
@@ -1006,8 +997,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.12109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2979,13 +2970,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3023,13 +3014,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3054,16 +3045,16 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3132,7 +3123,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3235,7 +3226,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3340,7 +3331,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3383,7 +3374,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3445,7 +3436,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -3471,16 +3462,16 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3550,13 +3541,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3581,16 +3572,16 @@
         <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3659,7 +3650,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3762,7 +3753,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3867,7 +3858,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3910,7 +3901,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3972,7 +3963,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -4001,13 +3992,13 @@
         <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4077,13 +4068,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4108,16 +4099,16 @@
         <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4186,7 +4177,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -4289,7 +4280,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -4394,7 +4385,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -4437,7 +4428,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4499,7 +4490,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -4528,13 +4519,13 @@
         <v>88</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4604,13 +4595,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4635,16 +4626,16 @@
         <v>95</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4713,7 +4704,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -4816,7 +4807,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -4921,7 +4912,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -4964,7 +4955,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5026,7 +5017,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>124</v>
@@ -5052,16 +5043,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5262,13 +5253,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
